--- a/products.xlsx
+++ b/products.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,12 +436,27 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Book Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Book Writer</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Reviewer Name</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Review Date</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Review</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Book Name</t>
         </is>
       </c>
     </row>
@@ -451,222 +466,23 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve">জীবনের জাগরণ সিরিজের “বেলা ফুরাবার আগে এবং এবার ভিন্ন কিছু হোক” এই দুইটি বই আমাকে যে কতটা বিমোহিত করেছে নিজেকে নতুন করে পরিবর্তনের চিন্তা শক্তি বাড়িয়েছে তা ভাষায় প্রকাশ করার মতো না ৷আমার দৃঢ় বিশ্বাস, জীবনের জাগরণ সিরিজের বইগুলো পড়লে আশা করি হারাম নামক রিলেশনশিপ, মা-বাবার অবাধ্য হওয়ার পরিণতি এবং আল্লাহর হুকুম আহকাম মানের মাঝে যে কি আনন্দ সে তা অন্তর দিয়ে অনুধাবন করতে পারবে ৷আমার ক্ষেত্রে তাজ্জবের বিষয়টা হচ্ছে উনার লেখনিতে এতটাই ম্যাগনেট পাওয়ার যে লেখকের বইগুলো পড়ে অন্যান্য বই পড়ার আগ্রহ হারিয়ে ফেলেছি ৷ শুধু মন চায় সারা বছরই যেন উনার বই পড়তে থাকি ৷জাগরণের এই জাগ্রত জোয়ারে এবার নতুন করে লেখা হোক জীবনের জ্যামিতি </t>
+          <t>এবার ভিন্ন কিছু হোক (বেলা ফুরাবার আগে বইয়ের দ্বিতীয় কিস্তি) &lt;span&gt;(পেপারব্যাক)&lt;/span&gt;</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>এবার ভিন্ন কিছু হোক (বেলা ফুরাবার আগে বইয়ের দ্বিতীয় কিস্তি) (পেপারব্যাক)</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">বই পড়ে আগে কখনো চোখ দিয়ে অশ্রু পড়েনি কারণ মনে বোধই হয়নি আমি যে তিলে তিলে গুনাহ করছি কিন্তু যখন আমি অধম বেলা ফোরাবার আগে এবং এবার ভিন্ন কিছু হোক বই দুটো থেকে এমন কিছু টপিক পড়েছি যার দরুন আমি আমার চোখকে আটকাতে পারিনি ঝর ঝর করে অশ্রু পড়তে থাকে কারণ আমি ছিলাম বড় মাপের পাপী।  আমি বুঝতে পারি যে আমি মুসলমান হিসাবে কিভাবে দিন কাটাচ্ছি,কিভাবে আমি কোরআনকে অবহেলা করছি, কিভাবে রাসুলের তরিকা ছেড়ে মনচাহী জিন্দেগী পার করছি। ঐ বইগুলো পড়ার পর আমি উপলব্ধি করতে পেরেছি যে আসলেই আমি বড় মাপের অপরাধী। আমার গুনাহ সাগরের ফেনা পরিমাণের চেয়েও বেশি। আল্লাহ তায়ালা আরিফ আজাদ ভাইকে সর্বোত্তম প্রতিদান দান করুক। </t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>এবার ভিন্ন কিছু হোক (বেলা ফুরাবার আগে বইয়ের দ্বিতীয় কিস্তি) (পেপারব্যাক)</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>আল হামদুল্লিলাহ  এবার ভিন্ন কিছু হোক  বইটি পরে অনেক ভাল লাগতেছে  এখনো পুরো পুরি পড়ে শেষ করতে পারিনি । জীবনকে সঠিক পথে পরিচালিত করার জন্য মন্দ কাজ থেকে এবং হারাম রিলেশন থেকে দূরে থাকার জন্য এবার ভিন্ন কিছু হোক বইটি খুবি কার্যকরী , বইটি মনোযোগ সহকারে পড়লে আশা করি জীবনের সঠিক পথটি সে খুজে পাবে।।।।।</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>এবার ভিন্ন কিছু হোক (বেলা ফুরাবার আগে বইয়ের দ্বিতীয় কিস্তি) (পেপারব্যাক)</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>জীবনকে বদলে দেওয়ার মতো উপায় গুলো সুন্দরভাবে বর্ননা করা আছে।  দ্বীনের পথে আসার জন্যে যা বিশেষ ভাবে কার্যকর।  আল্লাহ আমাদের সবাই কে সঠিকভাবে দ্বীন পালনের তৌফিক দান করুন। আমিন💜</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>এবার ভিন্ন কিছু হোক (বেলা ফুরাবার আগে বইয়ের দ্বিতীয় কিস্তি) (পেপারব্যাক)</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>এবার ভিন্ন কিছু হোক, বইটি পড়লে অন্য এক ভালো লাগা কাজ করে, বইটি পড়ার সময় যেন বই এর কথা গুলো আমার চোখ এর সামনে ভেসে বেড়াই 🥰আরিফ আজাদ ভাই কে আল্লাহ  নেক হায়াত দান করুক 🥀🥰</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>এবার ভিন্ন কিছু হোক (বেলা ফুরাবার আগে বইয়ের দ্বিতীয় কিস্তি) (পেপারব্যাক)</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">আলহামদুলিল্লাহ! আসুন না নিজের জীবনে এবার ভিন্ন কিছু হোক। লেখকের লেখনি পাক সাথকতা, মনেতে জাগরণ আসুক ইসলামের আলোতে, সঠিক পথ  পেয়ে জীবনে মিলুক সফলতা... </t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>এবার ভিন্ন কিছু হোক (বেলা ফুরাবার আগে বইয়ের দ্বিতীয় কিস্তি) (পেপারব্যাক)</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>আল-হামদুলিল্লাহ! খুবই ভালো লাগলো বইটি। এখনো পুরোপুরি পড়তে পারিনি। ইংসা-আল্লাহ্ শেষ করবো। আল্লাহ্ আরিফ আজাদ ভাইকে নেক হায়াৎ দান করুন। আমিন ইয়া রব্বুল আলামীন...</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>এবার ভিন্ন কিছু হোক (বেলা ফুরাবার আগে বইয়ের দ্বিতীয় কিস্তি) (পেপারব্যাক)</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>আলহামদুলিল্লাহ, তার লেখার প্রশংসা আমার মত নিছক কেউ করার সাহস পাবে না।লেখনীতে জাদু আছে।টেনে ধরে রাখে, বান্দা যাবি কই!পথে তোমাকে আসতেই হবে,একবার পড়লেই।</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>এবার ভিন্ন কিছু হোক (বেলা ফুরাবার আগে বইয়ের দ্বিতীয় কিস্তি) (পেপারব্যাক)</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>বইটি জীবন পরিবর্তনকারী একটি বই।আমরা পাঠকরা নাস্তিক লেখকদের ফালতু বই পড়তে পড়তে যখন ক্লান্ত তখন আরিফ আজাদ আমাদেরকে বইয়ের জগতে ডুবে থাকা শেখালেন।</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>এবার ভিন্ন কিছু হোক (বেলা ফুরাবার আগে বইয়ের দ্বিতীয় কিস্তি) (পেপারব্যাক)</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">আরিফ আজাদের নাম টাই যথেষ্ট তার বইয়ের জন্য,,  কি ভাবছেন আমি আমি বাড়িয়ে বলছি? একটুও বাড়িয়ে বলিনি, বইটা হাতে নিলে আপনিও সেটা বুঝতে পারবেন। </t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>এবার ভিন্ন কিছু হোক (বেলা ফুরাবার আগে বইয়ের দ্বিতীয় কিস্তি) (পেপারব্যাক)</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>আলহামদুলিল্লাহ এবার ভিন্ন কিছু হোক বইটি এক কথায় অসাধারণ 🥰♥️এটি আরিফ আজাদ ভাইয়ের অনন্য মৌলিক বই।</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>এবার ভিন্ন কিছু হোক (বেলা ফুরাবার আগে বইয়ের দ্বিতীয় কিস্তি) (পেপারব্যাক)</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>বই গুলো প্রত্যক মানুষের অন্তত একবার হলেও পড়া উচিত ! বই গুলো জীবন নিয়ে নতুন করে ভাবতে শেখায়!</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>এবার ভিন্ন কিছু হোক (বেলা ফুরাবার আগে বইয়ের দ্বিতীয় কিস্তি) (পেপারব্যাক)</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>মনে কড়া নরে গেছে। মনে হচ্ছিল কথা গুলো চোখে ভাসছে। আল্লাহ কবুল করে নিন আরিফ আজাদ ভাইকে।</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>এবার ভিন্ন কিছু হোক (বেলা ফুরাবার আগে বইয়ের দ্বিতীয় কিস্তি) (পেপারব্যাক)</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>বইটি পড়লে মন খুব ভালো হয়ে যায়। ইসলামের সৌন্দর্য বইটিতে খুব ভালোভাবে ফুটিয়ে তোলা হয়েছে</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>এবার ভিন্ন কিছু হোক (বেলা ফুরাবার আগে বইয়ের দ্বিতীয় কিস্তি) (পেপারব্যাক)</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
+          <t xml:space="preserve"> &lt;span class="pr-1"&gt;by&lt;/span&gt; &lt;a href="/book/author/47902"&gt; আরিফ আজাদ &lt;/a&gt; </t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">By &lt;span id="js--reviewer-name-review-img-viewer"&gt;&lt;/span&gt;, </t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
         <is>
           <t>খুব কম বই ই আছে যে গুলো প্রতিদিন পড়তে ইচ্ছে হয় ,আরিফ আজাদের বই তার মধ্যে অন্যতম।</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>এবার ভিন্ন কিছু হোক (বেলা ফুরাবার আগে বইয়ের দ্বিতীয় কিস্তি) (পেপারব্যাক)</t>
         </is>
       </c>
     </row>

--- a/products.xlsx
+++ b/products.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,25 +436,15 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Book Name</t>
+          <t>Reviewer Name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Book Writer</t>
+          <t>Review Date</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Reviewer Name</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Review Date</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Review</t>
         </is>
@@ -464,23 +454,177 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>এবার ভিন্ন কিছু হোক (বেলা ফুরাবার আগে বইয়ের দ্বিতীয় কিস্তি) &lt;span&gt;(পেপারব্যাক)&lt;/span&gt;</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> &lt;span class="pr-1"&gt;by&lt;/span&gt; &lt;a href="/book/author/47902"&gt; আরিফ আজাদ &lt;/a&gt; </t>
-        </is>
-      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">By &lt;span id="js--reviewer-name-review-img-viewer"&gt;&lt;/span&gt;, </t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+          <t xml:space="preserve">জীবনের জাগরণ সিরিজের “বেলা ফুরাবার আগে এবং এবার ভিন্ন কিছু হোক” এই দুইটি বই আমাকে যে কতটা বিমোহিত করেছে নিজেকে নতুন করে পরিবর্তনের চিন্তা শক্তি বাড়িয়েছে তা ভাষায় প্রকাশ করার মতো না ৷আমার দৃঢ় বিশ্বাস, জীবনের জাগরণ সিরিজের বইগুলো পড়লে আশা করি হারাম নামক রিলেশনশিপ, মা-বাবার অবাধ্য হওয়ার পরিণতি এবং আল্লাহর হুকুম আহকাম মানের মাঝে যে কি আনন্দ সে তা অন্তর দিয়ে অনুধাবন করতে পারবে ৷আমার ক্ষেত্রে তাজ্জবের বিষয়টা হচ্ছে উনার লেখনিতে এতটাই ম্যাগনেট পাওয়ার যে লেখকের বইগুলো পড়ে অন্যান্য বই পড়ার আগ্রহ হারিয়ে ফেলেছি ৷ শুধু মন চায় সারা বছরই যেন উনার বই পড়তে থাকি ৷জাগরণের এই জাগ্রত জোয়ারে এবার নতুন করে লেখা হোক জীবনের জ্যামিতি </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">বই পড়ে আগে কখনো চোখ দিয়ে অশ্রু পড়েনি কারণ মনে বোধই হয়নি আমি যে তিলে তিলে গুনাহ করছি কিন্তু যখন আমি অধম বেলা ফোরাবার আগে এবং এবার ভিন্ন কিছু হোক বই দুটো থেকে এমন কিছু টপিক পড়েছি যার দরুন আমি আমার চোখকে আটকাতে পারিনি ঝর ঝর করে অশ্রু পড়তে থাকে কারণ আমি ছিলাম বড় মাপের পাপী।  আমি বুঝতে পারি যে আমি মুসলমান হিসাবে কিভাবে দিন কাটাচ্ছি,কিভাবে আমি কোরআনকে অবহেলা করছি, কিভাবে রাসুলের তরিকা ছেড়ে মনচাহী জিন্দেগী পার করছি। ঐ বইগুলো পড়ার পর আমি উপলব্ধি করতে পেরেছি যে আসলেই আমি বড় মাপের অপরাধী। আমার গুনাহ সাগরের ফেনা পরিমাণের চেয়েও বেশি। আল্লাহ তায়ালা আরিফ আজাদ ভাইকে সর্বোত্তম প্রতিদান দান করুক। </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>আল হামদুল্লিলাহ  এবার ভিন্ন কিছু হোক  বইটি পরে অনেক ভাল লাগতেছে  এখনো পুরো পুরি পড়ে শেষ করতে পারিনি । জীবনকে সঠিক পথে পরিচালিত করার জন্য মন্দ কাজ থেকে এবং হারাম রিলেশন থেকে দূরে থাকার জন্য এবার ভিন্ন কিছু হোক বইটি খুবি কার্যকরী , বইটি মনোযোগ সহকারে পড়লে আশা করি জীবনের সঠিক পথটি সে খুজে পাবে।।।।।</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>জীবনকে বদলে দেওয়ার মতো উপায় গুলো সুন্দরভাবে বর্ননা করা আছে।  দ্বীনের পথে আসার জন্যে যা বিশেষ ভাবে কার্যকর।  আল্লাহ আমাদের সবাই কে সঠিকভাবে দ্বীন পালনের তৌফিক দান করুন। আমিন💜</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>এবার ভিন্ন কিছু হোক, বইটি পড়লে অন্য এক ভালো লাগা কাজ করে, বইটি পড়ার সময় যেন বই এর কথা গুলো আমার চোখ এর সামনে ভেসে বেড়াই 🥰আরিফ আজাদ ভাই কে আল্লাহ  নেক হায়াত দান করুক 🥀🥰</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">আলহামদুলিল্লাহ! আসুন না নিজের জীবনে এবার ভিন্ন কিছু হোক। লেখকের লেখনি পাক সাথকতা, মনেতে জাগরণ আসুক ইসলামের আলোতে, সঠিক পথ  পেয়ে জীবনে মিলুক সফলতা... </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>আল-হামদুলিল্লাহ! খুবই ভালো লাগলো বইটি। এখনো পুরোপুরি পড়তে পারিনি। ইংসা-আল্লাহ্ শেষ করবো। আল্লাহ্ আরিফ আজাদ ভাইকে নেক হায়াৎ দান করুন। আমিন ইয়া রব্বুল আলামীন...</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>আলহামদুলিল্লাহ, তার লেখার প্রশংসা আমার মত নিছক কেউ করার সাহস পাবে না।লেখনীতে জাদু আছে।টেনে ধরে রাখে, বান্দা যাবি কই!পথে তোমাকে আসতেই হবে,একবার পড়লেই।</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>বইটি জীবন পরিবর্তনকারী একটি বই।আমরা পাঠকরা নাস্তিক লেখকদের ফালতু বই পড়তে পড়তে যখন ক্লান্ত তখন আরিফ আজাদ আমাদেরকে বইয়ের জগতে ডুবে থাকা শেখালেন।</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">আরিফ আজাদের নাম টাই যথেষ্ট তার বইয়ের জন্য,,  কি ভাবছেন আমি আমি বাড়িয়ে বলছি? একটুও বাড়িয়ে বলিনি, বইটা হাতে নিলে আপনিও সেটা বুঝতে পারবেন। </t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>আলহামদুলিল্লাহ এবার ভিন্ন কিছু হোক বইটি এক কথায় অসাধারণ 🥰♥️এটি আরিফ আজাদ ভাইয়ের অনন্য মৌলিক বই।</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>বই গুলো প্রত্যক মানুষের অন্তত একবার হলেও পড়া উচিত ! বই গুলো জীবন নিয়ে নতুন করে ভাবতে শেখায়!</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>মনে কড়া নরে গেছে। মনে হচ্ছিল কথা গুলো চোখে ভাসছে। আল্লাহ কবুল করে নিন আরিফ আজাদ ভাইকে।</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>বইটি পড়লে মন খুব ভালো হয়ে যায়। ইসলামের সৌন্দর্য বইটিতে খুব ভালোভাবে ফুটিয়ে তোলা হয়েছে</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
         <is>
           <t>খুব কম বই ই আছে যে গুলো প্রতিদিন পড়তে ইচ্ছে হয় ,আরিফ আজাদের বই তার মধ্যে অন্যতম।</t>
         </is>

--- a/products.xlsx
+++ b/products.xlsx
@@ -1,37 +1,204 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Programming\pyCharm\WebScrappingPython\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3EFCBD9-9748-42E9-AF9E-3B4C4F75985F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="52">
+  <si>
+    <t>Book Name</t>
+  </si>
+  <si>
+    <t>Writer Name</t>
+  </si>
+  <si>
+    <t>Reviewer Name</t>
+  </si>
+  <si>
+    <t>Review Date</t>
+  </si>
+  <si>
+    <t>Review</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> এবার ভিন্ন কিছু হোক (বেলা ফুরাবার আগে বইয়ের দ্বিতীয় কিস্তি) (পেপারব্যাক)  জীবনের জাগরণ সিরিজ ২   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> আরিফ আজাদ </t>
+  </si>
+  <si>
+    <t>মুহাম্মদ আল আমিন</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 04 Mar 2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">জীবনের জাগরণ সিরিজের “বেলা ফুরাবার আগে এবং এবার ভিন্ন কিছু হোক” এই দুইটি বই আমাকে যে কতটা বিমোহিত করেছে নিজেকে নতুন করে পরিবর্তনের চিন্তা শক্তি বাড়িয়েছে তা ভাষায় প্রকাশ করার মতো না ৷আমার দৃঢ় বিশ্বাস, জীবনের জাগরণ সিরিজের বইগুলো পড়লে আশা করি হারাম নামক রিলেশনশিপ, মা-বাবার অবাধ্য হওয়ার পরিণতি এবং আল্লাহর হুকুম আহকাম মানের মাঝে যে কি আনন্দ সে তা অন্তর দিয়ে অনুধাবন করতে পারবে ৷আমার ক্ষেত্রে তাজ্জবের বিষয়টা হচ্ছে উনার লেখনিতে এতটাই ম্যাগনেট পাওয়ার যে লেখকের বইগুলো পড়ে অন্যান্য বই পড়ার আগ্রহ হারিয়ে ফেলেছি ৷ শুধু মন চায় সারা বছরই যেন উনার বই পড়তে থাকি ৷জাগরণের এই জাগ্রত জোয়ারে এবার নতুন করে লেখা হোক জীবনের জ্যামিতি </t>
+  </si>
+  <si>
+    <t>ML. Akram Sarkar</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 14 May 2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">বই পড়ে আগে কখনো চোখ দিয়ে অশ্রু পড়েনি কারণ মনে বোধই হয়নি আমি যে তিলে তিলে গুনাহ করছি কিন্তু যখন আমি অধম বেলা ফোরাবার আগে এবং এবার ভিন্ন কিছু হোক বই দুটো থেকে এমন কিছু টপিক পড়েছি যার দরুন আমি আমার চোখকে আটকাতে পারিনি ঝর ঝর করে অশ্রু পড়তে থাকে কারণ আমি ছিলাম বড় মাপের পাপী।  আমি বুঝতে পারি যে আমি মুসলমান হিসাবে কিভাবে দিন কাটাচ্ছি,কিভাবে আমি কোরআনকে অবহেলা করছি, কিভাবে রাসুলের তরিকা ছেড়ে মনচাহী জিন্দেগী পার করছি। ঐ বইগুলো পড়ার পর আমি উপলব্ধি করতে পেরেছি যে আসলেই আমি বড় মাপের অপরাধী। আমার গুনাহ সাগরের ফেনা পরিমাণের চেয়েও বেশি। আল্লাহ তায়ালা আরিফ আজাদ ভাইকে সর্বোত্তম প্রতিদান দান করুক। </t>
+  </si>
+  <si>
+    <t>Md Dulal Hossain</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 30 May 2022</t>
+  </si>
+  <si>
+    <t>আল হামদুল্লিলাহ  এবার ভিন্ন কিছু হোক  বইটি পরে অনেক ভাল লাগতেছে  এখনো পুরো পুরি পড়ে শেষ করতে পারিনি । জীবনকে সঠিক পথে পরিচালিত করার জন্য মন্দ কাজ থেকে এবং হারাম রিলেশন থেকে দূরে থাকার জন্য এবার ভিন্ন কিছু হোক বইটি খুবি কার্যকরী , বইটি মনোযোগ সহকারে পড়লে আশা করি জীবনের সঠিক পথটি সে খুজে পাবে।।।।।</t>
+  </si>
+  <si>
+    <t>Md Nayan Hossain</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 24 Apr 2022</t>
+  </si>
+  <si>
+    <t>জীবনকে বদলে দেওয়ার মতো উপায় গুলো সুন্দরভাবে বর্ননা করা আছে।  দ্বীনের পথে আসার জন্যে যা বিশেষ ভাবে কার্যকর।  আল্লাহ আমাদের সবাই কে সঠিকভাবে দ্বীন পালনের তৌফিক দান করুন। আমিন💜</t>
+  </si>
+  <si>
+    <t>Md Ananda</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 12 Apr 2022</t>
+  </si>
+  <si>
+    <t>এবার ভিন্ন কিছু হোক, বইটি পড়লে অন্য এক ভালো লাগা কাজ করে, বইটি পড়ার সময় যেন বই এর কথা গুলো আমার চোখ এর সামনে ভেসে বেড়াই 🥰আরিফ আজাদ ভাই কে আল্লাহ  নেক হায়াত দান করুক 🥀🥰</t>
+  </si>
+  <si>
+    <t>Zeba Shajida</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 28 Mar 2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">আলহামদুলিল্লাহ! আসুন না নিজের জীবনে এবার ভিন্ন কিছু হোক। লেখকের লেখনি পাক সাথকতা, মনেতে জাগরণ আসুক ইসলামের আলোতে, সঠিক পথ  পেয়ে জীবনে মিলুক সফলতা... </t>
+  </si>
+  <si>
+    <t>MD Rat Ahmed Naiem</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 18 Mar 2022</t>
+  </si>
+  <si>
+    <t>আল-হামদুলিল্লাহ! খুবই ভালো লাগলো বইটি। এখনো পুরোপুরি পড়তে পারিনি। ইংসা-আল্লাহ্ শেষ করবো। আল্লাহ্ আরিফ আজাদ ভাইকে নেক হায়াৎ দান করুন। আমিন ইয়া রব্বুল আলামীন...</t>
+  </si>
+  <si>
+    <t>Azad Mahmud</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 15 Mar 2022</t>
+  </si>
+  <si>
+    <t>আলহামদুলিল্লাহ, তার লেখার প্রশংসা আমার মত নিছক কেউ করার সাহস পাবে না।লেখনীতে জাদু আছে।টেনে ধরে রাখে, বান্দা যাবি কই!পথে তোমাকে আসতেই হবে,একবার পড়লেই।</t>
+  </si>
+  <si>
+    <t>Tahashan Hussein seyam</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 17 Mar 2022</t>
+  </si>
+  <si>
+    <t>বইটি জীবন পরিবর্তনকারী একটি বই।আমরা পাঠকরা নাস্তিক লেখকদের ফালতু বই পড়তে পড়তে যখন ক্লান্ত তখন আরিফ আজাদ আমাদেরকে বইয়ের জগতে ডুবে থাকা শেখালেন।</t>
+  </si>
+  <si>
+    <t>Sabbir Ahamed Shahin</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 29 Mar 2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">আরিফ আজাদের নাম টাই যথেষ্ট তার বইয়ের জন্য,,  কি ভাবছেন আমি আমি বাড়িয়ে বলছি? একটুও বাড়িয়ে বলিনি, বইটা হাতে নিলে আপনিও সেটা বুঝতে পারবেন। </t>
+  </si>
+  <si>
+    <t>Arafat Rahman</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 26 Mar 2022</t>
+  </si>
+  <si>
+    <t>আলহামদুলিল্লাহ এবার ভিন্ন কিছু হোক বইটি এক কথায় অসাধারণ 🥰♥️এটি আরিফ আজাদ ভাইয়ের অনন্য মৌলিক বই।</t>
+  </si>
+  <si>
+    <t>Abubakkar Siddik</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 28 May 2022</t>
+  </si>
+  <si>
+    <t>বই গুলো প্রত্যক মানুষের অন্তত একবার হলেও পড়া উচিত ! বই গুলো জীবন নিয়ে নতুন করে ভাবতে শেখায়!</t>
+  </si>
+  <si>
+    <t>Selim Reza</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 13 May 2022</t>
+  </si>
+  <si>
+    <t>মনে কড়া নরে গেছে। মনে হচ্ছিল কথা গুলো চোখে ভাসছে। আল্লাহ কবুল করে নিন আরিফ আজাদ ভাইকে।</t>
+  </si>
+  <si>
+    <t>App review bd</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 30 Mar 2022</t>
+  </si>
+  <si>
+    <t>বইটি পড়লে মন খুব ভালো হয়ে যায়। ইসলামের সৌন্দর্য বইটিতে খুব ভালোভাবে ফুটিয়ে তোলা হয়েছে</t>
+  </si>
+  <si>
+    <t>Shahadat Hosen Tareq</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 03 Apr 2022</t>
+  </si>
+  <si>
+    <t>খুব কম বই ই আছে যে গুলো প্রতিদিন পড়তে ইচ্ছে হয় ,আরিফ আজাদের বই তার মধ্যে অন্যতম।</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +213,49 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,214 +543,337 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="40.85546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="6" max="6" width="148.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Reviewer Name</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Review Date</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Review</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">জীবনের জাগরণ সিরিজের “বেলা ফুরাবার আগে এবং এবার ভিন্ন কিছু হোক” এই দুইটি বই আমাকে যে কতটা বিমোহিত করেছে নিজেকে নতুন করে পরিবর্তনের চিন্তা শক্তি বাড়িয়েছে তা ভাষায় প্রকাশ করার মতো না ৷আমার দৃঢ় বিশ্বাস, জীবনের জাগরণ সিরিজের বইগুলো পড়লে আশা করি হারাম নামক রিলেশনশিপ, মা-বাবার অবাধ্য হওয়ার পরিণতি এবং আল্লাহর হুকুম আহকাম মানের মাঝে যে কি আনন্দ সে তা অন্তর দিয়ে অনুধাবন করতে পারবে ৷আমার ক্ষেত্রে তাজ্জবের বিষয়টা হচ্ছে উনার লেখনিতে এতটাই ম্যাগনেট পাওয়ার যে লেখকের বইগুলো পড়ে অন্যান্য বই পড়ার আগ্রহ হারিয়ে ফেলেছি ৷ শুধু মন চায় সারা বছরই যেন উনার বই পড়তে থাকি ৷জাগরণের এই জাগ্রত জোয়ারে এবার নতুন করে লেখা হোক জীবনের জ্যামিতি </t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">বই পড়ে আগে কখনো চোখ দিয়ে অশ্রু পড়েনি কারণ মনে বোধই হয়নি আমি যে তিলে তিলে গুনাহ করছি কিন্তু যখন আমি অধম বেলা ফোরাবার আগে এবং এবার ভিন্ন কিছু হোক বই দুটো থেকে এমন কিছু টপিক পড়েছি যার দরুন আমি আমার চোখকে আটকাতে পারিনি ঝর ঝর করে অশ্রু পড়তে থাকে কারণ আমি ছিলাম বড় মাপের পাপী।  আমি বুঝতে পারি যে আমি মুসলমান হিসাবে কিভাবে দিন কাটাচ্ছি,কিভাবে আমি কোরআনকে অবহেলা করছি, কিভাবে রাসুলের তরিকা ছেড়ে মনচাহী জিন্দেগী পার করছি। ঐ বইগুলো পড়ার পর আমি উপলব্ধি করতে পেরেছি যে আসলেই আমি বড় মাপের অপরাধী। আমার গুনাহ সাগরের ফেনা পরিমাণের চেয়েও বেশি। আল্লাহ তায়ালা আরিফ আজাদ ভাইকে সর্বোত্তম প্রতিদান দান করুক। </t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>আল হামদুল্লিলাহ  এবার ভিন্ন কিছু হোক  বইটি পরে অনেক ভাল লাগতেছে  এখনো পুরো পুরি পড়ে শেষ করতে পারিনি । জীবনকে সঠিক পথে পরিচালিত করার জন্য মন্দ কাজ থেকে এবং হারাম রিলেশন থেকে দূরে থাকার জন্য এবার ভিন্ন কিছু হোক বইটি খুবি কার্যকরী , বইটি মনোযোগ সহকারে পড়লে আশা করি জীবনের সঠিক পথটি সে খুজে পাবে।।।।।</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>জীবনকে বদলে দেওয়ার মতো উপায় গুলো সুন্দরভাবে বর্ননা করা আছে।  দ্বীনের পথে আসার জন্যে যা বিশেষ ভাবে কার্যকর।  আল্লাহ আমাদের সবাই কে সঠিকভাবে দ্বীন পালনের তৌফিক দান করুন। আমিন💜</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>এবার ভিন্ন কিছু হোক, বইটি পড়লে অন্য এক ভালো লাগা কাজ করে, বইটি পড়ার সময় যেন বই এর কথা গুলো আমার চোখ এর সামনে ভেসে বেড়াই 🥰আরিফ আজাদ ভাই কে আল্লাহ  নেক হায়াত দান করুক 🥀🥰</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">আলহামদুলিল্লাহ! আসুন না নিজের জীবনে এবার ভিন্ন কিছু হোক। লেখকের লেখনি পাক সাথকতা, মনেতে জাগরণ আসুক ইসলামের আলোতে, সঠিক পথ  পেয়ে জীবনে মিলুক সফলতা... </t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>আল-হামদুলিল্লাহ! খুবই ভালো লাগলো বইটি। এখনো পুরোপুরি পড়তে পারিনি। ইংসা-আল্লাহ্ শেষ করবো। আল্লাহ্ আরিফ আজাদ ভাইকে নেক হায়াৎ দান করুন। আমিন ইয়া রব্বুল আলামীন...</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+    </row>
+    <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>আলহামদুলিল্লাহ, তার লেখার প্রশংসা আমার মত নিছক কেউ করার সাহস পাবে না।লেখনীতে জাদু আছে।টেনে ধরে রাখে, বান্দা যাবি কই!পথে তোমাকে আসতেই হবে,একবার পড়লেই।</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>বইটি জীবন পরিবর্তনকারী একটি বই।আমরা পাঠকরা নাস্তিক লেখকদের ফালতু বই পড়তে পড়তে যখন ক্লান্ত তখন আরিফ আজাদ আমাদেরকে বইয়ের জগতে ডুবে থাকা শেখালেন।</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
+      <c r="F2" t="s">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">আরিফ আজাদের নাম টাই যথেষ্ট তার বইয়ের জন্য,,  কি ভাবছেন আমি আমি বাড়িয়ে বলছি? একটুও বাড়িয়ে বলিনি, বইটা হাতে নিলে আপনিও সেটা বুঝতে পারবেন। </t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
+    </row>
+    <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>আলহামদুলিল্লাহ এবার ভিন্ন কিছু হোক বইটি এক কথায় অসাধারণ 🥰♥️এটি আরিফ আজাদ ভাইয়ের অনন্য মৌলিক বই।</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
+      <c r="E3" t="s">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>বই গুলো প্রত্যক মানুষের অন্তত একবার হলেও পড়া উচিত ! বই গুলো জীবন নিয়ে নতুন করে ভাবতে শেখায়!</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
+      <c r="F3" t="s">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>মনে কড়া নরে গেছে। মনে হচ্ছিল কথা গুলো চোখে ভাসছে। আল্লাহ কবুল করে নিন আরিফ আজাদ ভাইকে।</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
+    </row>
+    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>বইটি পড়লে মন খুব ভালো হয়ে যায়। ইসলামের সৌন্দর্য বইটিতে খুব ভালোভাবে ফুটিয়ে তোলা হয়েছে</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
+      <c r="E4" t="s">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>খুব কম বই ই আছে যে গুলো প্রতিদিন পড়তে ইচ্ছে হয় ,আরিফ আজাদের বই তার মধ্যে অন্যতম।</t>
-        </is>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/products.xlsx
+++ b/products.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Programming\pyCharm\WebScrappingPython\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EATL\PycharmProjects\WebScapping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3EFCBD9-9748-42E9-AF9E-3B4C4F75985F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="99">
   <si>
     <t>Book Name</t>
   </si>
@@ -70,6 +69,15 @@
     <t>আল হামদুল্লিলাহ  এবার ভিন্ন কিছু হোক  বইটি পরে অনেক ভাল লাগতেছে  এখনো পুরো পুরি পড়ে শেষ করতে পারিনি । জীবনকে সঠিক পথে পরিচালিত করার জন্য মন্দ কাজ থেকে এবং হারাম রিলেশন থেকে দূরে থাকার জন্য এবার ভিন্ন কিছু হোক বইটি খুবি কার্যকরী , বইটি মনোযোগ সহকারে পড়লে আশা করি জীবনের সঠিক পথটি সে খুজে পাবে।।।।।</t>
   </si>
   <si>
+    <t>Mehedi Hasan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 08 Jun 2022</t>
+  </si>
+  <si>
+    <t>The book is really great, I have learned a lot from it. Many thanks to the author for gifting me a book and many thanks for delivering such a book to me. There is really a lot to learn that we don't know, we need to know.</t>
+  </si>
+  <si>
     <t>Md Nayan Hossain</t>
   </si>
   <si>
@@ -169,19 +177,151 @@
     <t>বইটি পড়লে মন খুব ভালো হয়ে যায়। ইসলামের সৌন্দর্য বইটিতে খুব ভালোভাবে ফুটিয়ে তোলা হয়েছে</t>
   </si>
   <si>
-    <t>Shahadat Hosen Tareq</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 03 Apr 2022</t>
-  </si>
-  <si>
-    <t>খুব কম বই ই আছে যে গুলো প্রতিদিন পড়তে ইচ্ছে হয় ,আরিফ আজাদের বই তার মধ্যে অন্যতম।</t>
+    <t xml:space="preserve"> নিউরনে অনুরণন (হার্ডকভার)     </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> মুহম্মদ জাফর ইকবাল </t>
+  </si>
+  <si>
+    <t>UnsmartBoy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 28 Oct 2019</t>
+  </si>
+  <si>
+    <t>নিউরনে অনুরণন বইটির সন্ধান পেয়েছিলাম চমক হাসান ভাইয়ের মাধ্যমে। সেখান থেকেই আগ্রহ জাগে বইটির উপরে। রকমারিতে অর্ডার করার পরে বইটি যখন হাতে পেলাম দেখলাম সত্যিই অসাধারণ মানুষকে কিভাবে বিজ্ঞানমনস্ক করে তুলতে হয়, মানুষকে কিভাবে চিন্তাশীল করে তুলতে হয়, ছোট ছেলে মেয়েদের মধ্যে কিভাবে আগ্রহ জাগিয়ে তুলতে হয়, সেটাই মূলত জাফর ইকবাল স্যার এবং কায়কোবাদ স্যার প্রচেষ্টা করেছেন এই বইয়ের মাধ্যমে। আপনারা যারা এই বইটা এখনও পড়ে দেখেননি।  আমি মনে করি অন্তত পক্ষে একবার তাদের পড়ে দেখা উচিত।</t>
+  </si>
+  <si>
+    <t>Jyotirmay Arnab</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 05 Jul 2021</t>
+  </si>
+  <si>
+    <t>যারা গণিত শিখতে চান বা গণিত অলিম্পিয়াডে অংশগ্রহণ করতে চান তাদের জন্য বইটি খুবই ভালো। যারা গণিত মজা করে শিখতে চান তাদের জন্য কায়কোবাদ ও জাফর ইকবাল স্যারের এই বইটি খুবই উপকারে আসবে। আপনারা যারা বইটি কিনতে চান তারা কিনতে পারেন। তবে কিনে বুকসেল্ফ এ সাজিয়ে রাখলে চলবে না, বইটি মন দিয়ে পড়ে ট্রিক্স গুলো শিখতে হবে,  তাহলেই লেখকের লেখা সার্থক হবে। এক কথায় বইটি অসাধারণ। ইচ্ছা করলে বইটিতে থাকা সমস্যা গুলো সমাধান করেও পাঠাতে পারেন।</t>
+  </si>
+  <si>
+    <t>Md. Rafid Al Nahiyan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 06 Feb 2022</t>
+  </si>
+  <si>
+    <t>গনিত বিষয়ের অনেক অজার কাহিনি, মজার ধারার সাথে পরিচিত হলাম। বইটির সব থেকে ভালো লাগা দিকটি হলো, গনিত বিষয়ে কিছু লেখার পর ২০০ টা মজার মজার গানিতিক সমস্যা দেওয়া আছে। গানিতিক সমস্যা বললে ভুল হবে, অনেক মজার মজার ধাঁধাঁ দেওয়া আছে। ওগুলো আসলেই মজারই। করতে করতে কখোনোই বিরক্ত বোধ করি না। বরং যখন ক্লাসের পড়া আর পড়তে ভালো লাগে না, তখন ওই ধাঁধাঁগুলোর সমস্যা সমাধানের চেষ্টা করি। সত্যিই, ভালোই লাগে।</t>
+  </si>
+  <si>
+    <t>shihab uddin</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 15 Dec 2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">গনিত যারা ভালোবাসেন তাদের জন্য অসাধারণ একটা  বই। দুইশো গানিতিক সমস্যার প্রত্যেকটার সমধান খুঁজতে গিয়ে যে আরও কত কিছু শিখে ফেলেছি! আর মহান গনিতবিদদের জীবনকাহিনী আপনাকে মুগ্ধ ছাড়া আর কিছু করবে না। আমার পড়া বিজ্ঞান বিষয়ক বইগুলোর মধ্যে 'নিউরণে অনুরণন প্রথম দিকেই থাকবে। ধন্যবাদ শ্রদ্ধেয় জাফর ইকবাল স্যার এবং শ্রদ্ধেয় কায়কোবাদ স্যারকে আপনাদের এই অসাধারণ সৃষ্টি উপহার দেবার জন্য    </t>
+  </si>
+  <si>
+    <t>MD.AL AMIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 15 Sep 2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">অসাধারণ এককথায়।। গনিত কে ভালোবাসলে এই বইটা পড়ে তার প্রত্যেকটা সমস্যা সমাধানের চেষ্টা করা উচিৎ ।  বইটির একটা বিশেষ বৈশিষ্ট্য হচ্ছে কোনো সমাধান করে দেয়া নেই,আমার কাছএ ব্যক্তিগত ভাবে ব্যাপারটা খুবই ভালো লেগেছে কেননা সমাধান দেয়া থাকলে,অনেকেই কম চেষ্টা করেই সমাধান করতে না পারলে সমাধান দেখার চেষ্টা করতো,তাই সেই সুযোগ থাকছে না।।  সবাই নিজে নিজে সমাধান করে উত্তর পাঠাবে।। </t>
+  </si>
+  <si>
+    <t>Sumaiya Islam</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21 Nov 2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">গণিতের বিভিন্ন সমস্যা দেয়া আছে বইটিতে। বলে না,’Practice makes a man perfect’। যত বেশি অঙ্ক করা যায় ততই ভালো। কিন্তু মস্তিষ্ককে একটু খাটতে হবে এর জন্য। কোনো সমস্যার সমাধান করার জন্য যত বেশি চিন্তা করা যাবে, ততই অর্জিত জ্ঞান সমৃদ্ধ হবে। </t>
+  </si>
+  <si>
+    <t>Md.Tarek Rahman</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 09 Jul 2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">সৌমিত্র চক্রবর্তী এর এই বই টি না পড়লে হয়তোবা জ্যামিতির সূক্ষ্ম সূক্ষ্ম   বিষয় গুলো অজানাই রয়ে যেত। বইটি পড়ে অনেক ভালো লেগেছে,, </t>
+  </si>
+  <si>
+    <t>Arijeet Nandi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 02 May 2021</t>
+  </si>
+  <si>
+    <t>It's a very good book for math lovers.I am also a math lover,so i am very happy for the book</t>
+  </si>
+  <si>
+    <t>Asibul Haque Shihab</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 29 Oct 2021</t>
+  </si>
+  <si>
+    <t>অসাধারণ বই,গণিত প্রেমীদের জন্য,,যারা গণিতকে ভয় পায় তাদের মনেও প্রেম জাগিয়ে তুলবে❤</t>
+  </si>
+  <si>
+    <t>Kazi Md Habibur Rahman</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 19 Nov 2019</t>
+  </si>
+  <si>
+    <t>A great inspiration for startup, fantastic Fighting spirit.</t>
+  </si>
+  <si>
+    <t>Md Ali Shuvo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 12 Feb 2016</t>
+  </si>
+  <si>
+    <t>গণিত প্রেমীদের জন্য অবশ্যই একটি মজার বই।</t>
+  </si>
+  <si>
+    <t>Md Nooruddin Kabir</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10 Aug 2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">গনিতের পাগল যারা, তাদের জন্য ফরজ। </t>
+  </si>
+  <si>
+    <t>Munna</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 29 Feb 2020</t>
+  </si>
+  <si>
+    <t>আমার জিবনে পড়া গনিতের শ্রেষ্ঠ বই</t>
+  </si>
+  <si>
+    <t>Md. Rakib Hossain</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 04 Jun 2021</t>
+  </si>
+  <si>
+    <t>অনেক কিছু জানার আছে এখান থেকে</t>
+  </si>
+  <si>
+    <t>Md Al Shahriar Sowrov</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 06 Sep 2021</t>
+  </si>
+  <si>
+    <t>যতটা ভাবছিলাম ততোটা ভালো নাহ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -204,7 +344,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -213,8 +353,54 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
       </left>
       <right style="thin">
         <color auto="1"/>
@@ -227,21 +413,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -543,337 +739,637 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="40.85546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1"/>
-    <col min="6" max="6" width="148.85546875" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="5"/>
+    <col min="2" max="2" width="22.140625" style="1" customWidth="1"/>
+    <col min="3" max="5" width="9.140625" style="6"/>
+    <col min="6" max="6" width="71" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
         <v>7</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="B9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
         <v>8</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="B10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
         <v>9</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="B11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
         <v>10</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="B12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
         <v>11</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="B13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
         <v>12</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="B14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
         <v>13</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="B15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
         <v>14</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="B16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="6" t="s">
         <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>26</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>27</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>28</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>29</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/products.xlsx
+++ b/products.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,20 +446,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Reviewer Name</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Review Date</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Rating</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Review</t>
         </is>
@@ -481,18 +486,23 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t xml:space="preserve"> ইসলামি বই: আত্ম-উন্নয়ন </t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>মুহাম্মদ আল আমিন</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 04 Mar 2022</t>
         </is>
       </c>
-      <c r="F2" t="n">
-        <v>5</v>
-      </c>
-      <c r="G2" t="inlineStr">
+      <c r="G2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">জীবনের জাগরণ সিরিজের “বেলা ফুরাবার আগে এবং এবার ভিন্ন কিছু হোক” এই দুইটি বই আমাকে যে কতটা বিমোহিত করেছে নিজেকে নতুন করে পরিবর্তনের চিন্তা শক্তি বাড়িয়েছে তা ভাষায় প্রকাশ করার মতো না ৷আমার দৃঢ় বিশ্বাস, জীবনের জাগরণ সিরিজের বইগুলো পড়লে আশা করি হারাম নামক রিলেশনশিপ, মা-বাবার অবাধ্য হওয়ার পরিণতি এবং আল্লাহর হুকুম আহকাম মানের মাঝে যে কি আনন্দ সে তা অন্তর দিয়ে অনুধাবন করতে পারবে ৷আমার ক্ষেত্রে তাজ্জবের বিষয়টা হচ্ছে উনার লেখনিতে এতটাই ম্যাগনেট পাওয়ার যে লেখকের বইগুলো পড়ে অন্যান্য বই পড়ার আগ্রহ হারিয়ে ফেলেছি ৷ শুধু মন চায় সারা বছরই যেন উনার বই পড়তে থাকি ৷জাগরণের এই জাগ্রত জোয়ারে এবার নতুন করে লেখা হোক জীবনের জ্যামিতি </t>
         </is>
@@ -514,18 +524,23 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t xml:space="preserve"> ইসলামি বই: আত্ম-উন্নয়ন </t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>ML. Akram Sarkar</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 14 May 2022</t>
         </is>
       </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="G3" t="n">
+        <v>5</v>
+      </c>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">বই পড়ে আগে কখনো চোখ দিয়ে অশ্রু পড়েনি কারণ মনে বোধই হয়নি আমি যে তিলে তিলে গুনাহ করছি কিন্তু যখন আমি অধম বেলা ফোরাবার আগে এবং এবার ভিন্ন কিছু হোক বই দুটো থেকে এমন কিছু টপিক পড়েছি যার দরুন আমি আমার চোখকে আটকাতে পারিনি ঝর ঝর করে অশ্রু পড়তে থাকে কারণ আমি ছিলাম বড় মাপের পাপী।  আমি বুঝতে পারি যে আমি মুসলমান হিসাবে কিভাবে দিন কাটাচ্ছি,কিভাবে আমি কোরআনকে অবহেলা করছি, কিভাবে রাসুলের তরিকা ছেড়ে মনচাহী জিন্দেগী পার করছি। ঐ বইগুলো পড়ার পর আমি উপলব্ধি করতে পেরেছি যে আসলেই আমি বড় মাপের অপরাধী। আমার গুনাহ সাগরের ফেনা পরিমাণের চেয়েও বেশি। আল্লাহ তায়ালা আরিফ আজাদ ভাইকে সর্বোত্তম প্রতিদান দান করুক। </t>
         </is>
@@ -547,20 +562,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Md Dulal Hossain</t>
+          <t xml:space="preserve"> ইসলামি বই: আত্ম-উন্নয়ন </t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30 May 2022</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>5</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>আল হামদুল্লিলাহ  এবার ভিন্ন কিছু হোক  বইটি পরে অনেক ভাল লাগতেছে  এখনো পুরো পুরি পড়ে শেষ করতে পারিনি । জীবনকে সঠিক পথে পরিচালিত করার জন্য মন্দ কাজ থেকে এবং হারাম রিলেশন থেকে দূরে থাকার জন্য এবার ভিন্ন কিছু হোক বইটি খুবি কার্যকরী , বইটি মনোযোগ সহকারে পড়লে আশা করি জীবনের সঠিক পথটি সে খুজে পাবে।।।।।</t>
+          <t>MD. Shahidul Islam</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 29 Jun 2022</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Arif Azad manei bhinno kicu jokhon dekhi priyo shaeikh er notun boi ashce tokhon kicu na vebei preorder kori ebong pawar por puro boi ta 2 din e pore sesh kori sotti oshadharon ekta boi. Allah Arif Azad vai er knowledge aro bariye dik ei asha kori jeno uni ei rokom aro boi niye amader majhe aste paren amar torof theke 5 star rating</t>
         </is>
       </c>
     </row>
@@ -580,20 +600,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Mehedi Hasan</t>
+          <t xml:space="preserve"> ইসলামি বই: আত্ম-উন্নয়ন </t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 08 Jun 2022</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>5</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>The book is really great, I have learned a lot from it. Many thanks to the author for gifting me a book and many thanks for delivering such a book to me. There is really a lot to learn that we don't know, we need to know.</t>
+          <t>Md Dulal Hossain</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30 May 2022</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>5</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>আল হামদুল্লিলাহ  এবার ভিন্ন কিছু হোক  বইটি পরে অনেক ভাল লাগতেছে  এখনো পুরো পুরি পড়ে শেষ করতে পারিনি । জীবনকে সঠিক পথে পরিচালিত করার জন্য মন্দ কাজ থেকে এবং হারাম রিলেশন থেকে দূরে থাকার জন্য এবার ভিন্ন কিছু হোক বইটি খুবি কার্যকরী , বইটি মনোযোগ সহকারে পড়লে আশা করি জীবনের সঠিক পথটি সে খুজে পাবে।।।।।</t>
         </is>
       </c>
     </row>
@@ -613,20 +638,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Md Nayan Hossain</t>
+          <t xml:space="preserve"> ইসলামি বই: আত্ম-উন্নয়ন </t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 24 Apr 2022</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>5</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>জীবনকে বদলে দেওয়ার মতো উপায় গুলো সুন্দরভাবে বর্ননা করা আছে।  দ্বীনের পথে আসার জন্যে যা বিশেষ ভাবে কার্যকর।  আল্লাহ আমাদের সবাই কে সঠিকভাবে দ্বীন পালনের তৌফিক দান করুন। আমিন💜</t>
+          <t>Mehedi Hasan</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 08 Jun 2022</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>5</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>The book is really great, I have learned a lot from it. Many thanks to the author for gifting me a book and many thanks for delivering such a book to me. There is really a lot to learn that we don't know, we need to know.</t>
         </is>
       </c>
     </row>
@@ -646,20 +676,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Md Ananda</t>
+          <t xml:space="preserve"> ইসলামি বই: আত্ম-উন্নয়ন </t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 12 Apr 2022</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>5</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>এবার ভিন্ন কিছু হোক, বইটি পড়লে অন্য এক ভালো লাগা কাজ করে, বইটি পড়ার সময় যেন বই এর কথা গুলো আমার চোখ এর সামনে ভেসে বেড়াই 🥰আরিফ আজাদ ভাই কে আল্লাহ  নেক হায়াত দান করুক 🥀🥰</t>
+          <t>Md Nayan Hossain</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 24 Apr 2022</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>5</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>জীবনকে বদলে দেওয়ার মতো উপায় গুলো সুন্দরভাবে বর্ননা করা আছে।  দ্বীনের পথে আসার জন্যে যা বিশেষ ভাবে কার্যকর।  আল্লাহ আমাদের সবাই কে সঠিকভাবে দ্বীন পালনের তৌফিক দান করুন। আমিন💜</t>
         </is>
       </c>
     </row>
@@ -679,20 +714,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Zeba Shajida</t>
+          <t xml:space="preserve"> ইসলামি বই: আত্ম-উন্নয়ন </t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 28 Mar 2022</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">আলহামদুলিল্লাহ! আসুন না নিজের জীবনে এবার ভিন্ন কিছু হোক। লেখকের লেখনি পাক সাথকতা, মনেতে জাগরণ আসুক ইসলামের আলোতে, সঠিক পথ  পেয়ে জীবনে মিলুক সফলতা... </t>
+          <t>Md Ananda</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 12 Apr 2022</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>5</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>এবার ভিন্ন কিছু হোক, বইটি পড়লে অন্য এক ভালো লাগা কাজ করে, বইটি পড়ার সময় যেন বই এর কথা গুলো আমার চোখ এর সামনে ভেসে বেড়াই 🥰আরিফ আজাদ ভাই কে আল্লাহ  নেক হায়াত দান করুক 🥀🥰</t>
         </is>
       </c>
     </row>
@@ -712,20 +752,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>MD Rat Ahmed Naiem</t>
+          <t xml:space="preserve"> ইসলামি বই: আত্ম-উন্নয়ন </t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 18 Mar 2022</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>5</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>আল-হামদুলিল্লাহ! খুবই ভালো লাগলো বইটি। এখনো পুরোপুরি পড়তে পারিনি। ইংসা-আল্লাহ্ শেষ করবো। আল্লাহ্ আরিফ আজাদ ভাইকে নেক হায়াৎ দান করুন। আমিন ইয়া রব্বুল আলামীন...</t>
+          <t>Zeba Shajida</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 28 Mar 2022</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">আলহামদুলিল্লাহ! আসুন না নিজের জীবনে এবার ভিন্ন কিছু হোক। লেখকের লেখনি পাক সাথকতা, মনেতে জাগরণ আসুক ইসলামের আলোতে, সঠিক পথ  পেয়ে জীবনে মিলুক সফলতা... </t>
         </is>
       </c>
     </row>
@@ -745,20 +790,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Azad Mahmud</t>
+          <t xml:space="preserve"> ইসলামি বই: আত্ম-উন্নয়ন </t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 15 Mar 2022</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>5</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>আলহামদুলিল্লাহ, তার লেখার প্রশংসা আমার মত নিছক কেউ করার সাহস পাবে না।লেখনীতে জাদু আছে।টেনে ধরে রাখে, বান্দা যাবি কই!পথে তোমাকে আসতেই হবে,একবার পড়লেই।</t>
+          <t>MD Rat Ahmed Naiem</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 18 Mar 2022</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>5</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>আল-হামদুলিল্লাহ! খুবই ভালো লাগলো বইটি। এখনো পুরোপুরি পড়তে পারিনি। ইংসা-আল্লাহ্ শেষ করবো। আল্লাহ্ আরিফ আজাদ ভাইকে নেক হায়াৎ দান করুন। আমিন ইয়া রব্বুল আলামীন...</t>
         </is>
       </c>
     </row>
@@ -778,20 +828,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Tahashan Hussein seyam</t>
+          <t xml:space="preserve"> ইসলামি বই: আত্ম-উন্নয়ন </t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 17 Mar 2022</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>বইটি জীবন পরিবর্তনকারী একটি বই।আমরা পাঠকরা নাস্তিক লেখকদের ফালতু বই পড়তে পড়তে যখন ক্লান্ত তখন আরিফ আজাদ আমাদেরকে বইয়ের জগতে ডুবে থাকা শেখালেন।</t>
+          <t>Azad Mahmud</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 15 Mar 2022</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>5</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>আলহামদুলিল্লাহ, তার লেখার প্রশংসা আমার মত নিছক কেউ করার সাহস পাবে না।লেখনীতে জাদু আছে।টেনে ধরে রাখে, বান্দা যাবি কই!পথে তোমাকে আসতেই হবে,একবার পড়লেই।</t>
         </is>
       </c>
     </row>
@@ -811,20 +866,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Sabbir Ahamed Shahin</t>
+          <t xml:space="preserve"> ইসলামি বই: আত্ম-উন্নয়ন </t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 29 Mar 2022</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>5</v>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">আরিফ আজাদের নাম টাই যথেষ্ট তার বইয়ের জন্য,,  কি ভাবছেন আমি আমি বাড়িয়ে বলছি? একটুও বাড়িয়ে বলিনি, বইটা হাতে নিলে আপনিও সেটা বুঝতে পারবেন। </t>
+          <t>Tahashan Hussein seyam</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 17 Mar 2022</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>বইটি জীবন পরিবর্তনকারী একটি বই।আমরা পাঠকরা নাস্তিক লেখকদের ফালতু বই পড়তে পড়তে যখন ক্লান্ত তখন আরিফ আজাদ আমাদেরকে বইয়ের জগতে ডুবে থাকা শেখালেন।</t>
         </is>
       </c>
     </row>
@@ -844,20 +904,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Arafat Rahman</t>
+          <t xml:space="preserve"> ইসলামি বই: আত্ম-উন্নয়ন </t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 26 Mar 2022</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>5</v>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>আলহামদুলিল্লাহ এবার ভিন্ন কিছু হোক বইটি এক কথায় অসাধারণ 🥰♥️এটি আরিফ আজাদ ভাইয়ের অনন্য মৌলিক বই।</t>
+          <t>Sabbir Ahamed Shahin</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 29 Mar 2022</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>5</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">আরিফ আজাদের নাম টাই যথেষ্ট তার বইয়ের জন্য,,  কি ভাবছেন আমি আমি বাড়িয়ে বলছি? একটুও বাড়িয়ে বলিনি, বইটা হাতে নিলে আপনিও সেটা বুঝতে পারবেন। </t>
         </is>
       </c>
     </row>
@@ -877,20 +942,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Abubakkar Siddik</t>
+          <t xml:space="preserve"> ইসলামি বই: আত্ম-উন্নয়ন </t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 28 May 2022</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
+          <t>Arafat Rahman</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 26 Mar 2022</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
         <v>0</v>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>বই গুলো প্রত্যক মানুষের অন্তত একবার হলেও পড়া উচিত ! বই গুলো জীবন নিয়ে নতুন করে ভাবতে শেখায়!</t>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>আলহামদুলিল্লাহ এবার ভিন্ন কিছু হোক বইটি এক কথায় অসাধারণ 🥰♥️এটি আরিফ আজাদ ভাইয়ের অনন্য মৌলিক বই।</t>
         </is>
       </c>
     </row>
@@ -910,20 +980,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Selim Reza</t>
+          <t xml:space="preserve"> ইসলামি বই: আত্ম-উন্নয়ন </t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 13 May 2022</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>5</v>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>মনে কড়া নরে গেছে। মনে হচ্ছিল কথা গুলো চোখে ভাসছে। আল্লাহ কবুল করে নিন আরিফ আজাদ ভাইকে।</t>
+          <t>Abubakkar Siddik</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 28 May 2022</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>5</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>বই গুলো প্রত্যক মানুষের অন্তত একবার হলেও পড়া উচিত ! বই গুলো জীবন নিয়ে নতুন করে ভাবতে শেখায়!</t>
         </is>
       </c>
     </row>
@@ -943,20 +1018,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>App review bd</t>
+          <t xml:space="preserve"> ইসলামি বই: আত্ম-উন্নয়ন </t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30 Mar 2022</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>5</v>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>বইটি পড়লে মন খুব ভালো হয়ে যায়। ইসলামের সৌন্দর্য বইটিতে খুব ভালোভাবে ফুটিয়ে তোলা হয়েছে</t>
+          <t>Selim Reza</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 13 May 2022</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>5</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>মনে কড়া নরে গেছে। মনে হচ্ছিল কথা গুলো চোখে ভাসছে। আল্লাহ কবুল করে নিন আরিফ আজাদ ভাইকে।</t>
         </is>
       </c>
     </row>
@@ -976,18 +1056,23 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
+          <t xml:space="preserve"> গণিত </t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
           <t>UnsmartBoy</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t xml:space="preserve"> 28 Oct 2019</t>
         </is>
       </c>
-      <c r="F17" t="n">
-        <v>5</v>
-      </c>
-      <c r="G17" t="inlineStr">
+      <c r="G17" t="n">
+        <v>5</v>
+      </c>
+      <c r="H17" t="inlineStr">
         <is>
           <t>নিউরনে অনুরণন বইটির সন্ধান পেয়েছিলাম চমক হাসান ভাইয়ের মাধ্যমে। সেখান থেকেই আগ্রহ জাগে বইটির উপরে। রকমারিতে অর্ডার করার পরে বইটি যখন হাতে পেলাম দেখলাম সত্যিই অসাধারণ মানুষকে কিভাবে বিজ্ঞানমনস্ক করে তুলতে হয়, মানুষকে কিভাবে চিন্তাশীল করে তুলতে হয়, ছোট ছেলে মেয়েদের মধ্যে কিভাবে আগ্রহ জাগিয়ে তুলতে হয়, সেটাই মূলত জাফর ইকবাল স্যার এবং কায়কোবাদ স্যার প্রচেষ্টা করেছেন এই বইয়ের মাধ্যমে। আপনারা যারা এই বইটা এখনও পড়ে দেখেননি।  আমি মনে করি অন্তত পক্ষে একবার তাদের পড়ে দেখা উচিত।</t>
         </is>
@@ -1009,18 +1094,23 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
+          <t xml:space="preserve"> গণিত </t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
           <t>Jyotirmay Arnab</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t xml:space="preserve"> 05 Jul 2021</t>
         </is>
       </c>
-      <c r="F18" t="n">
-        <v>5</v>
-      </c>
-      <c r="G18" t="inlineStr">
+      <c r="G18" t="n">
+        <v>5</v>
+      </c>
+      <c r="H18" t="inlineStr">
         <is>
           <t>যারা গণিত শিখতে চান বা গণিত অলিম্পিয়াডে অংশগ্রহণ করতে চান তাদের জন্য বইটি খুবই ভালো। যারা গণিত মজা করে শিখতে চান তাদের জন্য কায়কোবাদ ও জাফর ইকবাল স্যারের এই বইটি খুবই উপকারে আসবে। আপনারা যারা বইটি কিনতে চান তারা কিনতে পারেন। তবে কিনে বুকসেল্ফ এ সাজিয়ে রাখলে চলবে না, বইটি মন দিয়ে পড়ে ট্রিক্স গুলো শিখতে হবে,  তাহলেই লেখকের লেখা সার্থক হবে। এক কথায় বইটি অসাধারণ। ইচ্ছা করলে বইটিতে থাকা সমস্যা গুলো সমাধান করেও পাঠাতে পারেন।</t>
         </is>
@@ -1042,18 +1132,23 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
+          <t xml:space="preserve"> গণিত </t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
           <t>Md. Rafid Al Nahiyan</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t xml:space="preserve"> 06 Feb 2022</t>
         </is>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
         <v>0</v>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>গনিত বিষয়ের অনেক অজার কাহিনি, মজার ধারার সাথে পরিচিত হলাম। বইটির সব থেকে ভালো লাগা দিকটি হলো, গনিত বিষয়ে কিছু লেখার পর ২০০ টা মজার মজার গানিতিক সমস্যা দেওয়া আছে। গানিতিক সমস্যা বললে ভুল হবে, অনেক মজার মজার ধাঁধাঁ দেওয়া আছে। ওগুলো আসলেই মজারই। করতে করতে কখোনোই বিরক্ত বোধ করি না। বরং যখন ক্লাসের পড়া আর পড়তে ভালো লাগে না, তখন ওই ধাঁধাঁগুলোর সমস্যা সমাধানের চেষ্টা করি। সত্যিই, ভালোই লাগে।</t>
         </is>
@@ -1075,18 +1170,23 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
+          <t xml:space="preserve"> গণিত </t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
           <t>shihab uddin</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t xml:space="preserve"> 15 Dec 2019</t>
         </is>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="n">
         <v>4</v>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t xml:space="preserve">গনিত যারা ভালোবাসেন তাদের জন্য অসাধারণ একটা  বই। দুইশো গানিতিক সমস্যার প্রত্যেকটার সমধান খুঁজতে গিয়ে যে আরও কত কিছু শিখে ফেলেছি! আর মহান গনিতবিদদের জীবনকাহিনী আপনাকে মুগ্ধ ছাড়া আর কিছু করবে না। আমার পড়া বিজ্ঞান বিষয়ক বইগুলোর মধ্যে 'নিউরণে অনুরণন প্রথম দিকেই থাকবে। ধন্যবাদ শ্রদ্ধেয় জাফর ইকবাল স্যার এবং শ্রদ্ধেয় কায়কোবাদ স্যারকে আপনাদের এই অসাধারণ সৃষ্টি উপহার দেবার জন্য    </t>
         </is>
@@ -1108,18 +1208,23 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
+          <t xml:space="preserve"> গণিত </t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
           <t>MD.AL AMIN</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t xml:space="preserve"> 15 Sep 2019</t>
         </is>
       </c>
-      <c r="F21" t="n">
+      <c r="G21" t="n">
         <v>1</v>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t xml:space="preserve">অসাধারণ এককথায়।। গনিত কে ভালোবাসলে এই বইটা পড়ে তার প্রত্যেকটা সমস্যা সমাধানের চেষ্টা করা উচিৎ ।  বইটির একটা বিশেষ বৈশিষ্ট্য হচ্ছে কোনো সমাধান করে দেয়া নেই,আমার কাছএ ব্যক্তিগত ভাবে ব্যাপারটা খুবই ভালো লেগেছে কেননা সমাধান দেয়া থাকলে,অনেকেই কম চেষ্টা করেই সমাধান করতে না পারলে সমাধান দেখার চেষ্টা করতো,তাই সেই সুযোগ থাকছে না।।  সবাই নিজে নিজে সমাধান করে উত্তর পাঠাবে।। </t>
         </is>
@@ -1141,18 +1246,23 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
+          <t xml:space="preserve"> গণিত </t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
           <t>Sumaiya Islam</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t xml:space="preserve"> 21 Nov 2021</t>
         </is>
       </c>
-      <c r="F22" t="n">
-        <v>5</v>
-      </c>
-      <c r="G22" t="inlineStr">
+      <c r="G22" t="n">
+        <v>5</v>
+      </c>
+      <c r="H22" t="inlineStr">
         <is>
           <t xml:space="preserve">গণিতের বিভিন্ন সমস্যা দেয়া আছে বইটিতে। বলে না,’Practice makes a man perfect’। যত বেশি অঙ্ক করা যায় ততই ভালো। কিন্তু মস্তিষ্ককে একটু খাটতে হবে এর জন্য। কোনো সমস্যার সমাধান করার জন্য যত বেশি চিন্তা করা যাবে, ততই অর্জিত জ্ঞান সমৃদ্ধ হবে। </t>
         </is>
@@ -1174,18 +1284,23 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
+          <t xml:space="preserve"> গণিত </t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
           <t>Md.Tarek Rahman</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t xml:space="preserve"> 09 Jul 2020</t>
         </is>
       </c>
-      <c r="F23" t="n">
-        <v>5</v>
-      </c>
-      <c r="G23" t="inlineStr">
+      <c r="G23" t="n">
+        <v>5</v>
+      </c>
+      <c r="H23" t="inlineStr">
         <is>
           <t xml:space="preserve">সৌমিত্র চক্রবর্তী এর এই বই টি না পড়লে হয়তোবা জ্যামিতির সূক্ষ্ম সূক্ষ্ম   বিষয় গুলো অজানাই রয়ে যেত। বইটি পড়ে অনেক ভালো লেগেছে,, </t>
         </is>
@@ -1207,18 +1322,23 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
+          <t xml:space="preserve"> গণিত </t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
           <t>Arijeet Nandi</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t xml:space="preserve"> 02 May 2021</t>
         </is>
       </c>
-      <c r="F24" t="n">
-        <v>5</v>
-      </c>
-      <c r="G24" t="inlineStr">
+      <c r="G24" t="n">
+        <v>5</v>
+      </c>
+      <c r="H24" t="inlineStr">
         <is>
           <t>It's a very good book for math lovers.I am also a math lover,so i am very happy for the book</t>
         </is>
@@ -1240,18 +1360,23 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
+          <t xml:space="preserve"> গণিত </t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
           <t>Asibul Haque Shihab</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t xml:space="preserve"> 29 Oct 2021</t>
         </is>
       </c>
-      <c r="F25" t="n">
-        <v>5</v>
-      </c>
-      <c r="G25" t="inlineStr">
+      <c r="G25" t="n">
+        <v>5</v>
+      </c>
+      <c r="H25" t="inlineStr">
         <is>
           <t>অসাধারণ বই,গণিত প্রেমীদের জন্য,,যারা গণিতকে ভয় পায় তাদের মনেও প্রেম জাগিয়ে তুলবে❤</t>
         </is>
@@ -1273,18 +1398,23 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
+          <t xml:space="preserve"> গণিত </t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
           <t>Kazi Md Habibur Rahman</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t xml:space="preserve"> 19 Nov 2019</t>
         </is>
       </c>
-      <c r="F26" t="n">
-        <v>5</v>
-      </c>
-      <c r="G26" t="inlineStr">
+      <c r="G26" t="n">
+        <v>5</v>
+      </c>
+      <c r="H26" t="inlineStr">
         <is>
           <t>A great inspiration for startup, fantastic Fighting spirit.</t>
         </is>
@@ -1306,18 +1436,23 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
+          <t xml:space="preserve"> গণিত </t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
           <t>Md Ali Shuvo</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t xml:space="preserve"> 12 Feb 2016</t>
         </is>
       </c>
-      <c r="F27" t="n">
-        <v>5</v>
-      </c>
-      <c r="G27" t="inlineStr">
+      <c r="G27" t="n">
+        <v>5</v>
+      </c>
+      <c r="H27" t="inlineStr">
         <is>
           <t>গণিত প্রেমীদের জন্য অবশ্যই একটি মজার বই।</t>
         </is>
@@ -1339,18 +1474,23 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
+          <t xml:space="preserve"> গণিত </t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
           <t>Md Nooruddin Kabir</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t xml:space="preserve"> 10 Aug 2021</t>
         </is>
       </c>
-      <c r="F28" t="n">
-        <v>5</v>
-      </c>
-      <c r="G28" t="inlineStr">
+      <c r="G28" t="n">
+        <v>5</v>
+      </c>
+      <c r="H28" t="inlineStr">
         <is>
           <t xml:space="preserve">গনিতের পাগল যারা, তাদের জন্য ফরজ। </t>
         </is>
@@ -1372,18 +1512,23 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
+          <t xml:space="preserve"> গণিত </t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
           <t>Munna</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t xml:space="preserve"> 29 Feb 2020</t>
         </is>
       </c>
-      <c r="F29" t="n">
+      <c r="G29" t="n">
         <v>0</v>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>আমার জিবনে পড়া গনিতের শ্রেষ্ঠ বই</t>
         </is>
@@ -1405,18 +1550,23 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
+          <t xml:space="preserve"> গণিত </t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
           <t>Md. Rakib Hossain</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t xml:space="preserve"> 04 Jun 2021</t>
         </is>
       </c>
-      <c r="F30" t="n">
+      <c r="G30" t="n">
         <v>0</v>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>অনেক কিছু জানার আছে এখান থেকে</t>
         </is>
@@ -1438,18 +1588,23 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
+          <t xml:space="preserve"> গণিত </t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
           <t>Md Al Shahriar Sowrov</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t xml:space="preserve"> 06 Sep 2021</t>
         </is>
       </c>
-      <c r="F31" t="n">
-        <v>5</v>
-      </c>
-      <c r="G31" t="inlineStr">
+      <c r="G31" t="n">
+        <v>5</v>
+      </c>
+      <c r="H31" t="inlineStr">
         <is>
           <t>যতটা ভাবছিলাম ততোটা ভালো নাহ</t>
         </is>
@@ -1471,18 +1626,23 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
+          <t xml:space="preserve"> সমকালীন উপন্যাস </t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
           <t>আফছানা আফরোজ</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t xml:space="preserve"> 03 Dec 2019</t>
         </is>
       </c>
-      <c r="F32" t="n">
-        <v>5</v>
-      </c>
-      <c r="G32" t="inlineStr">
+      <c r="G32" t="n">
+        <v>5</v>
+      </c>
+      <c r="H32" t="inlineStr">
         <is>
           <t xml:space="preserve"> "কোথাও কেউ নেই " হুমায়ুন আহমেদ স্যারের একটা বিখ্যাত উপন্যাস। বাংলাদেশ টেলিভিশন এ এই উপন্যাস নিয়ে নাটক প্রচারিত হয়। তখনকার সময়ে এটি একটি সাড়াজাগানো নাটক। উপন্যাসের কেন্দ্রীয় চরিত্র গুলো হলো মুনা, বাকের, মামুন,শওকত, বকুল, বকুলের মা, বাবু, জহির, টিনা প্রমুখ। বাবা মা হারা মুনা তার মামা শওকত সাহেবের পরিবারের সাথে থাকে। চাকরী করে। শওকত সাহেবের মেয়ে বকুল আর ছেলে বাবু। মামুন নামের ছেলের সাথে বিয়ে ঠিক হয় মুনার। অন্যদিকে বাকের হলো পাড়ার মাস্তান।  তবে পাড়ার লোকজন তাকে পছন্দ করে আর বাকের পছন্দ করে মুনাকে। এভাবেই গল্প এগিয়ে যায়। নানা ঘাত প্রতিঘাতে শেষে বাকেরের ফাসি হয়, শওকত ও তার স্ত্রী মারা যায়, জাহানারা নামের এক মেয়েকে বিয়ে করে। মুনার পাশে আর কেউ থাকে না।</t>
         </is>
@@ -1504,18 +1664,23 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
+          <t xml:space="preserve"> সমকালীন উপন্যাস </t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
           <t>মো:নাজমুল হাসান খান</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t xml:space="preserve"> 09 Nov 2019</t>
         </is>
       </c>
-      <c r="F33" t="n">
-        <v>5</v>
-      </c>
-      <c r="G33" t="inlineStr">
+      <c r="G33" t="n">
+        <v>5</v>
+      </c>
+      <c r="H33" t="inlineStr">
         <is>
           <t>প্রথমে নাটকটি দেখি you tube এ।কোনো দিন এরকম নাটক দেখিনি।কয়েক মিনিট দেখেই নাটক টা ভালো লেগে গেল।কিন্তু পুরো নাটক দেখার সময় তো নেই।তাই রকমারি দিয়ে বইটি অর্ডার দিই।সত্যিই বইটি অসাধারন।আমার কাছে সবচেয়ে ভালো লেগেছে বাকের ভাইয়ের চরিত্র।তিনি নিঃস্বার্থ ভাবে সবাইকে দিয়েই গেলেন,কিন্তু তিনি বিনিময়ে কিছুই পেলেন না।পরে অবশ্য নাটকটি দেখেছি।এখনকার টিভিতে যে নাটক দেখায় এগুলো কোনো নাটক হলো!এই নাটকটি সত্যিই অসাধারন ও অতুলনীয়।যে একবার নাটকটা দেখবে,বারবার নাটকা দেখতে মন চাইবে।কোথাও কেউ নেই বইটি আমার পড়া প্রিয় একটি বই ও নাটক।</t>
         </is>
@@ -1537,18 +1702,23 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
+          <t xml:space="preserve"> সমকালীন উপন্যাস </t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
           <t>TARIQUL ISLAM</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t xml:space="preserve"> 10 Sep 2021</t>
         </is>
       </c>
-      <c r="F34" t="n">
-        <v>5</v>
-      </c>
-      <c r="G34" t="inlineStr">
+      <c r="G34" t="n">
+        <v>5</v>
+      </c>
+      <c r="H34" t="inlineStr">
         <is>
           <t>amar jibon e joto pora boi- etai holo shera. Muna ke jotobar dekhi, tar kotha pori, ki ek bhalo laga toiri hoy, mone hoy ami o to emon. Munar self respect take onno ucchotay niye geche, ar ei bishesh choritre Subarna Mustafa oshadharon obhinoy korechen. Kothao keu nei- shobcheye jonopriyo TV serial. er trailer e Muna ke jokhon dekhano hoy eka hete jacche shagorer ti dhore, ek odbhut hahakar toiri hoy- amader jiboner shathe mile mishe geche ei kothao keu nei.</t>
         </is>
@@ -1570,18 +1740,23 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
+          <t xml:space="preserve"> সমকালীন উপন্যাস </t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
           <t>md ramiz</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t xml:space="preserve"> 28 Oct 2019</t>
         </is>
       </c>
-      <c r="F35" t="n">
-        <v>5</v>
-      </c>
-      <c r="G35" t="inlineStr">
+      <c r="G35" t="n">
+        <v>5</v>
+      </c>
+      <c r="H35" t="inlineStr">
         <is>
           <t xml:space="preserve">অসাধারণ একটা বই। যদিও টেলিভিশনে যেভাবে ধরা দিয়েছে তার তুলনাই হয় না। তবু বইটাতেও  অনুভূতিটুকু কিছুটা হলেও ছিল। হূমায়ূন আহমেদ একজন কথার জাদুকর। তার সব বই অনন্য, অসাধারণ, অদ্ভুত সুন্দর। কোথাও কেউ নেই একটু বেশীই বিশেষ কারন কালজয়ী সেই টেলিভিশন ড্রামাটির জন্য। হুমায়ূন আহমেদের অন্যতম সেরা সৃষ্টি হয়েই থাকবে কোথাও কোথাও কেউ নেই। </t>
         </is>
@@ -1603,18 +1778,23 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
+          <t xml:space="preserve"> সমকালীন উপন্যাস </t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
           <t>Mamtaj Alam</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t xml:space="preserve"> 16 Mar 2020</t>
         </is>
       </c>
-      <c r="F36" t="n">
+      <c r="G36" t="n">
         <v>4</v>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>বইটা সত্যিই এক কথায় অসাধারণ। হুমায়ূন আহমেদের ভালো লেখা গুলোর মধ্যে অন্যতম। জীবনের রহস্য ভেদ করা সম্ভব নয়। দিন শেষে সবাই মায়ার বাধনে আবদ্ধ হয় । বাকের ভাই, মুনা, মামুন, জাহানারা, বকুল, বাবু প্রমুখ চরিত্রসমূহের মাধ্যমে লেখক নিত্যদিনের জীবন-যাপন ফুটিয়ে তুলেছেন যা আজ থেকে প্রায় ৩০ বছর আগের কথা।</t>
         </is>
@@ -1636,18 +1816,23 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
+          <t xml:space="preserve"> সমকালীন উপন্যাস </t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
           <t>Yousuf Azad</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t xml:space="preserve"> 02 Aug 2021</t>
         </is>
       </c>
-      <c r="F37" t="n">
-        <v>5</v>
-      </c>
-      <c r="G37" t="inlineStr">
+      <c r="G37" t="n">
+        <v>5</v>
+      </c>
+      <c r="H37" t="inlineStr">
         <is>
           <t>কিছু কিছু বই পড়লে সে সম্পর্কে লিখতে ইচ্ছা করে । কিন্তু বইয়ের ভিতরের শক্তি মাঝে মাঝে এতটা বেশি হয়ে যায় যে তখন আশেপাশের পরিবেশেও তার একটা প্রভাব ফেলে দেয় । মন খারাপ করার মত বই । নি:সন্দেহে । বলা যায় এরকম বই খুব কমই পড়েছি আমি ।</t>
         </is>
@@ -1669,18 +1854,23 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
+          <t xml:space="preserve"> সমকালীন উপন্যাস </t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
           <t>Sk Maruf Hasan Rinku</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t xml:space="preserve"> 10 Jan 2020</t>
         </is>
       </c>
-      <c r="F38" t="n">
-        <v>5</v>
-      </c>
-      <c r="G38" t="inlineStr">
+      <c r="G38" t="n">
+        <v>5</v>
+      </c>
+      <c r="H38" t="inlineStr">
         <is>
           <t>কিছু কিছু বই পড়লে সে সম্পর্কে লিখতে ইচ্ছা করে । কিন্তু বইয়ের ভিতরের শক্তি মাঝে মাঝে এতটা বেশি হয়ে যায় যে তখন আশেপাশের পরিবেশেও তার একটা প্রভাব ফেলে দেয় । মন খারাপ করার মত বই । নি:সন্দেহে । বলা যায় এরকম বই খুব কমই পড়েছি আমি ।</t>
         </is>
@@ -1702,18 +1892,23 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
+          <t xml:space="preserve"> সমকালীন উপন্যাস </t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
           <t>Mahdia Ruza</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t xml:space="preserve"> 21 Mar 2021</t>
         </is>
       </c>
-      <c r="F39" t="n">
-        <v>5</v>
-      </c>
-      <c r="G39" t="inlineStr">
+      <c r="G39" t="n">
+        <v>5</v>
+      </c>
+      <c r="H39" t="inlineStr">
         <is>
           <t>অত্যন্ত হৃদয়স্পর্শী একটি বই । শুরু থেকে শেষ পর্যন্ত উৎসাহ থাকে বইটি পড়ে শেষ করার ।হুমায়ন আহমেদ এর বই পড়ে খারাপ লাগবে না করো কখনো । ঠিক তেমনই একটি বই এটা ।</t>
         </is>
@@ -1735,18 +1930,23 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
+          <t xml:space="preserve"> সমকালীন উপন্যাস </t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
           <t>Md. Ebrahim Hossain</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t xml:space="preserve"> 08 Feb 2020</t>
         </is>
       </c>
-      <c r="F40" t="n">
-        <v>5</v>
-      </c>
-      <c r="G40" t="inlineStr">
+      <c r="G40" t="n">
+        <v>5</v>
+      </c>
+      <c r="H40" t="inlineStr">
         <is>
           <t xml:space="preserve">মাস্টারপিস একটা বই। বইটা যখন পড়ছিলাম, মনে হচ্ছি লো কাহিনীর ভেতর ডুবে গেছি। মুনা চরিত্রটি অসাধারন। বইটি পড়ে বাকের ভাইয়ের প্রেমে পড়ে গেছি। </t>
         </is>
@@ -1768,18 +1968,23 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
+          <t xml:space="preserve"> সমকালীন উপন্যাস </t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
           <t>Parvej Hasan</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t xml:space="preserve"> 27 Mar 2021</t>
         </is>
       </c>
-      <c r="F41" t="n">
+      <c r="G41" t="n">
         <v>0</v>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>বদিঃ বাকের ভাই “গায়ে হলুদের” ইংরেজি কি?বাকের ভাইঃ বডি টার্মারিক।জাস্ট অ্যামেইজিং!, হ্যাট’স অফ ফর হুমায়ূন আহমেদ।</t>
         </is>
@@ -1801,18 +2006,23 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
+          <t xml:space="preserve"> সমকালীন উপন্যাস </t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
           <t>Fahmida Fardin</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t xml:space="preserve"> 16 Nov 2021</t>
         </is>
       </c>
-      <c r="F42" t="n">
-        <v>5</v>
-      </c>
-      <c r="G42" t="inlineStr">
+      <c r="G42" t="n">
+        <v>5</v>
+      </c>
+      <c r="H42" t="inlineStr">
         <is>
           <t>কোথাও কেউ নেই বইটা অসাধারন। আমি ওইটা পড়া শুরু করলে আর উঠতে পারিনা।পুরাই অন্যরকম ভালো বই।🌺💕</t>
         </is>
@@ -1834,18 +2044,23 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
+          <t xml:space="preserve"> সমকালীন উপন্যাস </t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
           <t xml:space="preserve">Parvej Hossain </t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t xml:space="preserve"> 15 Nov 2019</t>
         </is>
       </c>
-      <c r="F43" t="n">
-        <v>5</v>
-      </c>
-      <c r="G43" t="inlineStr">
+      <c r="G43" t="n">
+        <v>5</v>
+      </c>
+      <c r="H43" t="inlineStr">
         <is>
           <t>সত্যি অসাধারণ একটি বই যতই পড়ি মন জুড়িয়ে যায়। ধন্যবাদ প্রিয় লেখক এমন একটি বই উপহার দেয়ার জন্য।</t>
         </is>
@@ -1867,18 +2082,23 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
+          <t xml:space="preserve"> সমকালীন উপন্যাস </t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
           <t>NAYEEM AHMED</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t xml:space="preserve"> 24 Dec 2020</t>
         </is>
       </c>
-      <c r="F44" t="n">
-        <v>5</v>
-      </c>
-      <c r="G44" t="inlineStr">
+      <c r="G44" t="n">
+        <v>5</v>
+      </c>
+      <c r="H44" t="inlineStr">
         <is>
           <t>হুমায়ুন স্যারে Best বই গুলোর মধ্যে Best বই হল এইটা।  এক কথায় অসাধারন একটি উপন্যাস।</t>
         </is>
@@ -1900,18 +2120,23 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
+          <t xml:space="preserve"> সমকালীন উপন্যাস </t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
           <t>Shovan Mondal</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t xml:space="preserve"> 26 Sep 2018</t>
         </is>
       </c>
-      <c r="F45" t="n">
-        <v>5</v>
-      </c>
-      <c r="G45" t="inlineStr">
+      <c r="G45" t="n">
+        <v>5</v>
+      </c>
+      <c r="H45" t="inlineStr">
         <is>
           <t xml:space="preserve">মন ভালো করে দেয়ার জন্য যথেষ্ট। পুরোটা পড়লে মনে হবে সিনেমা দেখছি। </t>
         </is>
@@ -1933,18 +2158,23 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
+          <t xml:space="preserve"> সমকালীন উপন্যাস </t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
           <t>Faysal Arshad Dip</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t xml:space="preserve"> 20 Oct 2019</t>
         </is>
       </c>
-      <c r="F46" t="n">
+      <c r="G46" t="n">
         <v>0</v>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t xml:space="preserve">খুব ভালো একটা কাহিনি লেখক খুব যত্ন নিয়ে লিখেছে। সবার পড়া উচিত। </t>
         </is>
